--- a/Results/K Clustering/KCluster Domain Phenotyping.xlsx
+++ b/Results/K Clustering/KCluster Domain Phenotyping.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edkwa\Desktop\Machine-learning-hemodynamics-Github\Results\K Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8475E64-0315-464A-9CE1-5C2E36C95CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6D2639-65F0-4F56-B7A3-B86DA5B3765D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4EB4045D-32F4-40AB-AE10-1735E4F90956}"/>
+    <workbookView xWindow="5904" yWindow="1176" windowWidth="16968" windowHeight="9840" xr2:uid="{4EB4045D-32F4-40AB-AE10-1735E4F90956}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KCluster Phenotyping" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Cluster 0</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Total/wk</t>
-  </si>
-  <si>
-    <t>Raw Cluster distribution</t>
-  </si>
-  <si>
-    <t>% of each Timepoint in each cluster</t>
   </si>
   <si>
     <t>Theoretical possible pressure-function combinations</t>
@@ -104,22 +98,49 @@
     <t>C0 = lowest pressure, least remodeling</t>
   </si>
   <si>
-    <t>C1 = Highest pressure, high adaptative mechanism recruitment</t>
+    <t>W15</t>
   </si>
   <si>
-    <t>C2 = medium pressure, highest function</t>
+    <t>W0</t>
   </si>
   <si>
-    <t>% of each cluster occupied by each timepoint</t>
+    <t>--&gt; The latest timepoint W12-15 occurred most in C2 while the mid timepoints were in C1</t>
   </si>
   <si>
-    <t>--&gt; The latest timepoint W12 occurred most commonly in C1</t>
+    <t>--&gt; C2 primarily later timepoints, c1 primarily mid timepoints, C0, all early</t>
   </si>
   <si>
-    <t>--&gt; C1 primarily later timepoints, c2 primarily mid timepoints, C0 even mix</t>
+    <t>C1 = Medium pressure, high pressure overload, but maintained EF</t>
   </si>
   <si>
-    <t>It seems like there's a pseudo- time based progression (c0-&gt;c2-&gt;c1), and a non-sequential functional adaptation with function increasing from c0-&gt;c1-&gt;c2. These characterizations are independent of sex in this dataset, contrary to some of my published work (https://journals.physiology.org/doi/abs/10.1152/ajpheart.00098.2024).</t>
+    <t>C2 = highest pressure overload, lowest EF (severe), similar contractility but significant stiffening compared to C1</t>
+  </si>
+  <si>
+    <t>It seems like there's a pseudo- time based progression (c0 early, c1/c2 later), and hemodynamically distinct functional adaptations distinct between c1 and c2. These characterizations are reflected by sex, supportive of previous published work (https://journals.physiology.org/doi/abs/10.1152/ajpheart.00098.2024).</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Raw Cluster distribution by sex</t>
+  </si>
+  <si>
+    <t>Raw Cluster distribution by timepoint</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Relative Cluster distribution by sex</t>
+  </si>
+  <si>
+    <t>Relative timepoint distribution by cluster</t>
+  </si>
+  <si>
+    <t>Relative cluster distribution by timepoint</t>
   </si>
 </sst>
 </file>
@@ -151,35 +172,38 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -262,65 +286,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,22 +445,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>277906</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2981</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>277906</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52884</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="81" name="Picture 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E23B168-EA08-396A-BDAF-ED4802B6AEFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385FC3D9-35A7-409E-B4FB-DFD6EB71FBD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,8 +476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5764306" y="1116164"/>
-          <a:ext cx="11582400" cy="4568894"/>
+          <a:off x="5783580" y="1494997"/>
+          <a:ext cx="11529060" cy="4510241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -386,23 +488,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>537435</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>528919</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>429859</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
+        <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB605AE2-39FA-D7F5-021F-F50E2884BE6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489B378C-BC16-4EDD-9F69-974A35A909AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,8 +512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636495" y="1703294"/>
-          <a:ext cx="502024" cy="403412"/>
+          <a:off x="537435" y="1964167"/>
+          <a:ext cx="502024" cy="410584"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -460,22 +562,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304802</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>179292</xdr:rowOff>
+      <xdr:colOff>45722</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>197226</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44821</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547746</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
+        <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84ABD47D-CE2F-4501-BE85-BF023D9A5DB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88EA9AB-2EDF-4A05-902D-A29E5A898E7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -483,8 +585,81 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743202" y="2151527"/>
-          <a:ext cx="502024" cy="403412"/>
+          <a:off x="2484122" y="2663412"/>
+          <a:ext cx="502024" cy="414169"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>82924</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584948</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED131CB8-DB56-42BA-8427-85237520296B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1911724" y="2034092"/>
+          <a:ext cx="502024" cy="410584"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -532,202 +707,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>502024</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>394448</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>143436</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09735F02-AC7F-4105-9466-2FAD5061F9D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1721224" y="1712259"/>
-          <a:ext cx="502024" cy="403412"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6F9F11-274C-FA79-10B9-7F6D2DA88703}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1353671" y="1882588"/>
-          <a:ext cx="224117" cy="8965"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BA36EA-E50F-40CD-A599-C00C18F6D789}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2366683" y="1972235"/>
-          <a:ext cx="295835" cy="233082"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>583096</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>112643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>143656</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>31060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="Group 29">
+        <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B09C97-3486-FCAE-7FA4-CC3DCA26D212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC02082B-3D30-4AE6-8024-37B2586418BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +731,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10946296" y="1209923"/>
+          <a:off x="10946296" y="2855843"/>
           <a:ext cx="1389360" cy="467057"/>
           <a:chOff x="5276998" y="3426164"/>
           <a:chExt cx="1389360" cy="475008"/>
@@ -743,10 +739,10 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="Group 30">
+          <xdr:cNvPr id="9" name="Group 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADFFEC7-177C-44D2-BEE8-13BF9DF36993}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5CF1A6-29F4-53FC-8D62-35615D9D16F7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -762,10 +758,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="Left Brace 37">
+            <xdr:cNvPr id="16" name="Left Brace 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E774FDC-8EDD-787E-D4A7-CE1ABF8831EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382AA172-2743-4EDB-00FD-3479F280BC19}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -907,10 +903,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="TextBox 28">
+            <xdr:cNvPr id="17" name="TextBox 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FC1AFA-EB13-6A93-6C32-B16B0B18257A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA08538-D60B-2974-A682-D6DB1CDB42A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1050,10 +1046,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31">
+          <xdr:cNvPr id="10" name="Group 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996E2F9D-5727-4548-81FA-CD2742B777D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4388BDE-F445-9160-0344-2B7D89FBB29A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1069,10 +1065,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="Left Brace 35">
+            <xdr:cNvPr id="14" name="Left Brace 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D8D3C7-5B11-AC9E-A438-FDCDEA84A00B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42D148A-F782-E437-83F1-FCAA4CBC145E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1214,10 +1210,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="TextBox 22">
+            <xdr:cNvPr id="15" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85339349-509E-00E4-BC77-CA2B4EDFA47F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED04D264-786D-9E79-9620-2ED2CAD11D6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1357,10 +1353,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="33" name="Group 32">
+          <xdr:cNvPr id="11" name="Group 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6301E8-DFCC-691F-1E36-44A3859D0DD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A14CAD-551F-04A9-BEA0-EDF3BD18867E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1376,10 +1372,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="Left Brace 33">
+            <xdr:cNvPr id="12" name="Left Brace 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E799529-ECBE-EAB8-41E9-6CC17CC58D12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B46285E-0A9E-0F95-BA7C-AD2923E31614}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1521,10 +1517,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="TextBox 22">
+            <xdr:cNvPr id="13" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A19E6DE-0802-0239-9E7F-82181BC90DD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9796726-15F4-BB42-3786-3D6A1BD23E18}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1669,21 +1665,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>355690</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>77443</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="Group 39">
+        <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B09C97-3486-FCAE-7FA4-CC3DCA26D212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D692A16E-A1B4-4FB2-916A-FD0472F9EDEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1687,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6281530" y="3474720"/>
+          <a:off x="6281530" y="5120640"/>
           <a:ext cx="1389360" cy="473683"/>
           <a:chOff x="5276998" y="3426164"/>
           <a:chExt cx="1389360" cy="475008"/>
@@ -1699,10 +1695,10 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="Group 40">
+          <xdr:cNvPr id="19" name="Group 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADFFEC7-177C-44D2-BEE8-13BF9DF36993}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF6BD96-7F01-C3B3-63F8-3DC4B3F65EFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1718,10 +1714,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="Left Brace 47">
+            <xdr:cNvPr id="26" name="Left Brace 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E774FDC-8EDD-787E-D4A7-CE1ABF8831EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF362400-972C-A36A-06CD-FA2E2CCD6A9F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1863,10 +1859,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="TextBox 28">
+            <xdr:cNvPr id="27" name="TextBox 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FC1AFA-EB13-6A93-6C32-B16B0B18257A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756F924F-8C5F-60A1-D1F7-EE8BB5059907}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2006,10 +2002,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="Group 41">
+          <xdr:cNvPr id="20" name="Group 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996E2F9D-5727-4548-81FA-CD2742B777D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20BB656-1434-A8FB-FDC2-D35D234884BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2025,10 +2021,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="Left Brace 45">
+            <xdr:cNvPr id="24" name="Left Brace 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D8D3C7-5B11-AC9E-A438-FDCDEA84A00B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6D9A60-ADE1-339C-706A-9EE9A4E14BA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2170,10 +2166,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="TextBox 22">
+            <xdr:cNvPr id="25" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85339349-509E-00E4-BC77-CA2B4EDFA47F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4268C217-C5EB-61B4-9AD3-6E3AB3C7FDA7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2313,10 +2309,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="43" name="Group 42">
+          <xdr:cNvPr id="21" name="Group 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6301E8-DFCC-691F-1E36-44A3859D0DD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF87DBAC-B952-BA2E-153D-9A76B3185C40}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2332,10 +2328,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="Left Brace 43">
+            <xdr:cNvPr id="22" name="Left Brace 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E799529-ECBE-EAB8-41E9-6CC17CC58D12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947CBD84-A73B-2376-7725-6559A7494689}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2477,10 +2473,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="TextBox 22">
+            <xdr:cNvPr id="23" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A19E6DE-0802-0239-9E7F-82181BC90DD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037CF597-E23C-38BC-E660-27E2E5338C85}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2625,21 +2621,21 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>549966</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>59634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>110526</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>163582</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="50" name="Group 49">
+        <xdr:cNvPr id="28" name="Group 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B09C97-3486-FCAE-7FA4-CC3DCA26D212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375CA17B-5812-45BD-97C1-B70D7BB57607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2643,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="13351566" y="2802834"/>
+          <a:off x="13351566" y="4448754"/>
           <a:ext cx="1389360" cy="469708"/>
           <a:chOff x="5276998" y="3426164"/>
           <a:chExt cx="1389360" cy="475008"/>
@@ -2655,10 +2651,10 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="51" name="Group 50">
+          <xdr:cNvPr id="29" name="Group 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADFFEC7-177C-44D2-BEE8-13BF9DF36993}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B774AA7-3378-FA25-8F74-1B3E9321D6F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2674,10 +2670,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="Left Brace 57">
+            <xdr:cNvPr id="36" name="Left Brace 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E774FDC-8EDD-787E-D4A7-CE1ABF8831EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2FD1DB-B460-C6FD-F04D-E34A32975EDA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2819,10 +2815,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="TextBox 28">
+            <xdr:cNvPr id="37" name="TextBox 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FC1AFA-EB13-6A93-6C32-B16B0B18257A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166337FE-3A00-D79E-AA70-33CDC9957E23}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2962,10 +2958,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="52" name="Group 51">
+          <xdr:cNvPr id="30" name="Group 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996E2F9D-5727-4548-81FA-CD2742B777D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB663CC-B1C4-4D33-DD54-D70A7C9BD8AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2981,10 +2977,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="Left Brace 55">
+            <xdr:cNvPr id="34" name="Left Brace 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D8D3C7-5B11-AC9E-A438-FDCDEA84A00B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84428974-031F-80DC-386B-66E56D072D2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3126,10 +3122,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="TextBox 22">
+            <xdr:cNvPr id="35" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85339349-509E-00E4-BC77-CA2B4EDFA47F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9924F6B-52CF-8FEF-4EB2-B4698D8B9859}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3269,10 +3265,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="53" name="Group 52">
+          <xdr:cNvPr id="31" name="Group 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6301E8-DFCC-691F-1E36-44A3859D0DD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2075FA-2C1E-82BB-579D-D111FB2657A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3288,10 +3284,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="Left Brace 53">
+            <xdr:cNvPr id="32" name="Left Brace 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E799529-ECBE-EAB8-41E9-6CC17CC58D12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A1774F-9B11-4F0E-6FB7-405744CE6744}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3433,10 +3429,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="TextBox 22">
+            <xdr:cNvPr id="33" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A19E6DE-0802-0239-9E7F-82181BC90DD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BCAD6A-EDA8-8D5B-854B-0CFF47C14C85}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3579,23 +3575,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212034</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>124112</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381331</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374451</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>70817</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>543748</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60215</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="70" name="Group 69">
+        <xdr:cNvPr id="38" name="Group 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FE6FD9-C4C9-4F1E-8A50-6A21F60B90C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955E2D2-94A2-481E-9AB2-93A1A820D0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3603,7 +3599,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6308034" y="1221392"/>
+          <a:off x="15621331" y="3039590"/>
           <a:ext cx="1381617" cy="312465"/>
           <a:chOff x="5276998" y="3583407"/>
           <a:chExt cx="1381617" cy="317765"/>
@@ -3611,10 +3607,10 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="72" name="Group 71">
+          <xdr:cNvPr id="39" name="Group 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37730A9-0C8F-CA1C-DA8C-109848121C3E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CA3A95-31BF-766A-F163-E473C879693D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3630,10 +3626,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="Left Brace 75">
+            <xdr:cNvPr id="43" name="Left Brace 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2824A80-EE01-645C-C59E-6013793E224D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32BBDFC-08E1-0BA8-2B67-8AA053CE7672}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3775,10 +3771,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="TextBox 22">
+            <xdr:cNvPr id="44" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A020E0A2-41A1-06E5-2FE4-BB87F80D4185}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE414D03-9F55-750C-C905-0E549A376328}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3918,10 +3914,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="73" name="Group 72">
+          <xdr:cNvPr id="40" name="Group 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C50B03-F97F-1F83-8D2A-6CE8EBEFD932}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C3BFF2-0264-FDDF-FF18-A2E07C8DB160}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3937,10 +3933,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="74" name="Left Brace 73">
+            <xdr:cNvPr id="41" name="Left Brace 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC821A19-B6E7-D6BE-B4DD-BEC03EAF186F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90B5197-66FE-1534-D0D2-3CE0788A0447}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4082,10 +4078,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="TextBox 22">
+            <xdr:cNvPr id="42" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABDDD7D-C220-3CBA-E979-BB70EAF62414}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1029403-0987-4A51-0DC4-0CEAF0AC6E84}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4228,23 +4224,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>404191</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>143990</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>566608</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90695</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156907</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="80" name="Group 79">
+        <xdr:cNvPr id="45" name="Group 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C181285-DC27-4677-BEC7-F54B3057BDAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A36452-7D7F-4B37-B558-F1742FC2E8A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4252,18 +4248,325 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15644191" y="1241270"/>
-          <a:ext cx="1381617" cy="312465"/>
-          <a:chOff x="5276998" y="3583407"/>
-          <a:chExt cx="1381617" cy="317765"/>
+          <a:off x="10959547" y="5216720"/>
+          <a:ext cx="1389360" cy="467285"/>
+          <a:chOff x="5276998" y="3426164"/>
+          <a:chExt cx="1389360" cy="468592"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="81" name="Group 80">
+          <xdr:cNvPr id="46" name="Group 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D245520D-3EFF-C71B-32A6-739DF39DABA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1354850-3693-120D-D5B4-583FDB3068EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5320385" y="3426164"/>
+            <a:ext cx="1345973" cy="405432"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="424070" cy="405432"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="Left Brace 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F85E90B-033F-4DEC-9E9C-C315733F575F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="159024" y="53011"/>
+              <a:ext cx="106022" cy="424070"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 49405"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9193914E-4C3A-3E93-948A-04970CCA661C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="163591" y="0"/>
+              <a:ext cx="134943" cy="405432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="47" name="Group 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CA1DD3-60C6-5E8A-18F5-25F5707EBAFB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4279,10 +4582,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="Left Brace 84">
+            <xdr:cNvPr id="48" name="Left Brace 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497F0831-1691-D0E9-8AAD-4C4107A574D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB14BC1-C98D-F2B4-5FA4-784692C92AB4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4424,10 +4727,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="TextBox 22">
+            <xdr:cNvPr id="49" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66585BE-7DC2-8A5E-C208-494F9EEAFFEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F29363-BCC5-9F35-71B5-17C5BB3DC06E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4565,335 +4868,345 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="82" name="Group 81">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63FDC4A-B1DF-2C82-71B6-D75D64509649}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5993372" y="3589823"/>
-            <a:ext cx="665243" cy="311349"/>
-            <a:chOff x="0" y="0"/>
-            <a:chExt cx="430056" cy="412463"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="Left Brace 82">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B211B84B-631E-C28E-DFBE-B0F7CA12C7F4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="5400000">
-              <a:off x="159024" y="147417"/>
-              <a:ext cx="106022" cy="424070"/>
-            </a:xfrm>
-            <a:prstGeom prst="leftBrace">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 8333"/>
-                <a:gd name="adj2" fmla="val 49405"/>
-              </a:avLst>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="TextBox 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B433EE51-AE45-8236-3C85-96D8313F49A1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="117663" y="0"/>
-              <a:ext cx="312393" cy="405432"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr sz="1100" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="2000"/>
-                <a:t>*</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>544758</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>42528</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152444</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365643</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Left Brace 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A33EBF-B9E2-491D-8071-215D27A64126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6954994" y="888637"/>
+          <a:ext cx="105726" cy="1345973"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 49405"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>155050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E87C1FF-DD40-45DB-9091-79165BDA19BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6860650" y="1287780"/>
+          <a:ext cx="428301" cy="404301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>376032</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>502805</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>441</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="Group 88">
+        <xdr:cNvPr id="54" name="Group 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A7517B-F9C7-AEBA-196B-53D222C96D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8AEAEF-3005-4F7B-9C70-DAF88B55F7D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,18 +5214,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13346358" y="3517248"/>
-          <a:ext cx="1459302" cy="308036"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="430056" cy="412463"/>
+          <a:off x="15616032" y="2887980"/>
+          <a:ext cx="1345973" cy="404301"/>
+          <a:chOff x="17322912" y="891540"/>
+          <a:chExt cx="1345973" cy="404301"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="Left Brace 89">
+          <xdr:cNvPr id="55" name="Left Brace 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F531EA-31D0-8EB7-B93A-AD8FB74D32BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D419C19-B619-9EDD-BBB5-52CA87255D05}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4920,8 +5233,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="159024" y="147417"/>
-            <a:ext cx="106022" cy="424070"/>
+            <a:off x="17943036" y="492397"/>
+            <a:ext cx="105726" cy="1345973"/>
           </a:xfrm>
           <a:prstGeom prst="leftBrace">
             <a:avLst>
@@ -5054,10 +5367,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="TextBox 22">
+          <xdr:cNvPr id="56" name="TextBox 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1F9C53-B72A-D6B0-2D55-1D759AD5DA86}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813A9538-5880-5899-2AB2-4554366D1CE3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5065,8 +5378,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="117663" y="0"/>
-            <a:ext cx="312393" cy="405432"/>
+            <a:off x="17848692" y="891540"/>
+            <a:ext cx="428301" cy="404301"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5089,7 +5402,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -5199,23 +5512,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>596347</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19879</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>467470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>156907</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>97322</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28030</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153643</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="Group 93">
+        <xdr:cNvPr id="57" name="Group 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D2F757-D110-4FD0-BC02-F74CB2131F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FEE617-C6EC-4585-91D5-0A836C7D11C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,7 +5536,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10959547" y="3494599"/>
+          <a:off x="13269070" y="5196840"/>
           <a:ext cx="1389360" cy="473683"/>
           <a:chOff x="5276998" y="3426164"/>
           <a:chExt cx="1389360" cy="475008"/>
@@ -5231,10 +5544,10 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="95" name="Group 94">
+          <xdr:cNvPr id="58" name="Group 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8218E9D-6291-7C7A-00FD-7AF4BF7004A2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8101A87-257B-7EAD-24F2-77E757C25240}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5250,10 +5563,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="102" name="Left Brace 101">
+            <xdr:cNvPr id="65" name="Left Brace 64">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF368643-71DB-0C3B-1000-F821BCDF932D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC77C97-D2EA-9C05-2DDC-E2C0E7C0CAF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5395,10 +5708,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="103" name="TextBox 28">
+            <xdr:cNvPr id="66" name="TextBox 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A74C5E-ACAF-4A7C-C9EB-F34CC79A1048}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169FD555-CBA9-D66A-B1F1-372496681199}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5538,10 +5851,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="96" name="Group 95">
+          <xdr:cNvPr id="59" name="Group 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A033E03-E311-5B99-E606-550DCA8C34E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8D8DA0-446D-73D3-9DDD-9D84464943F2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5557,10 +5870,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="Left Brace 99">
+            <xdr:cNvPr id="63" name="Left Brace 62">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF50B7C-EC37-B22F-2659-B9F6CD1FD4FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948761FF-D7CD-0FF9-A013-118F2D5873F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5702,10 +6015,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="TextBox 22">
+            <xdr:cNvPr id="64" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B7D006-9BA7-B0B3-AB8D-C911D3A6A7A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB5CA11-54D9-A79B-2F18-8F03DA1DE4C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5845,10 +6158,10 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="97" name="Group 96">
+          <xdr:cNvPr id="60" name="Group 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99B034A-F4BA-BC62-9C7C-3DF2BA780847}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21958014-46FB-1C6F-CE25-33958887F71F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5864,10 +6177,10 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="Left Brace 97">
+            <xdr:cNvPr id="61" name="Left Brace 60">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99FFBDD-818C-BF00-764A-3E89B12CD660}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9392D9CD-4895-75FA-FB6A-29CD49C88EE1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6009,10 +6322,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="99" name="TextBox 22">
+            <xdr:cNvPr id="62" name="TextBox 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C2CEB3-B6A8-EB6D-A5C5-0C7679DCF789}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3051B2B2-9A1E-5406-CD14-3AE72A5BA622}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6155,23 +6468,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>499038</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179688</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150067</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91484</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130783</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="Group 113">
+        <xdr:cNvPr id="67" name="Group 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1638D8-D7A4-4A07-A835-3989E40BE796}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CE2B86-3F61-46DD-8367-B016907C5BC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,300 +6492,1382 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13300638" y="3654408"/>
-          <a:ext cx="788742" cy="308036"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="430056" cy="412463"/>
+          <a:off x="8684467" y="5173980"/>
+          <a:ext cx="1345973" cy="473683"/>
+          <a:chOff x="5320385" y="3426164"/>
+          <a:chExt cx="1345973" cy="475008"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="Left Brace 114">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="68" name="Group 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EE1107-7947-138D-5C90-A22740C655BF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEE7358-76F2-DFB7-7E61-A28079DC62DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="159024" y="147417"/>
-            <a:ext cx="106022" cy="424070"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5320385" y="3426164"/>
+            <a:ext cx="1345973" cy="405432"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="424070" cy="405432"/>
           </a:xfrm>
-          <a:prstGeom prst="leftBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 8333"/>
-              <a:gd name="adj2" fmla="val 49405"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="Left Brace 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA16B52-6DF9-2C8D-D0BB-876ADF0E57A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="159024" y="53011"/>
+              <a:ext cx="106022" cy="424070"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 49405"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A022FA-1BEB-439F-8A98-C90B16533034}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="163591" y="0"/>
+              <a:ext cx="134943" cy="405432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
               <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="TextBox 22">
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="69" name="Group 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EBB5C1-E430-CFED-F88B-8CAE5B365424}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AC32B2-E8AF-A83F-B131-EC5CE7760CED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="117663" y="0"/>
-            <a:ext cx="312393" cy="405432"/>
+            <a:off x="5993372" y="3589823"/>
+            <a:ext cx="665243" cy="311349"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="430056" cy="412463"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Left Brace 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F83E08D-8673-BC3C-6DBC-7BBADBB2C040}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="159024" y="147417"/>
+              <a:ext cx="106022" cy="424070"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 49405"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="71" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F54356-B1DF-0744-9231-227950B1914D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="117663" y="0"/>
+              <a:ext cx="312393" cy="405432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150067</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69823</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="Group 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493699A7-4658-4B15-84DA-5F799352E22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8684467" y="2887980"/>
+          <a:ext cx="1345973" cy="473683"/>
+          <a:chOff x="5320385" y="3426164"/>
+          <a:chExt cx="1345973" cy="475008"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="75" name="Group 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D97274-B8B9-C2CB-A304-93D7B7960B11}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5320385" y="3426164"/>
+            <a:ext cx="1345973" cy="405432"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="424070" cy="405432"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="Left Brace 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF36F140-246A-2621-B4E1-BE22AE1B6978}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="159024" y="53011"/>
+              <a:ext cx="106022" cy="424070"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 49405"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEAA05F-69C3-7398-0E1D-EABE450E2681}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="163591" y="0"/>
+              <a:ext cx="134943" cy="405432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="76" name="Group 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F257A7B-2593-CFD0-B3EA-C054AECED100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5993372" y="3589823"/>
+            <a:ext cx="665243" cy="311349"/>
+            <a:chOff x="0" y="0"/>
+            <a:chExt cx="430056" cy="412463"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="Left Brace 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EF4315-1847-BC91-27BE-AF16DFD6CA7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="159024" y="147417"/>
+              <a:ext cx="106022" cy="424070"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftBrace">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8333"/>
+                <a:gd name="adj2" fmla="val 49405"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E6456E-9AD1-A01B-7B4C-0CEC5E007DDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="117663" y="0"/>
+              <a:ext cx="312393" cy="405432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BAB791A-ACB9-4EBB-B4D5-ECA93EAFD7CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1127760" y="2209800"/>
+          <a:ext cx="701040" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A968B7F-8999-4EB9-824F-04DF5ABA679D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1127760" y="2316480"/>
+          <a:ext cx="1173480" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6794,422 +8189,831 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380C44AC-0205-4F17-B65B-26AC9F0C4594}">
-  <dimension ref="A1:AA24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27045603-7585-4690-A66E-AFF5E117386D}">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
-      <c r="V1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
-    <row r="2" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="27"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5" t="s">
+      <c r="L2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="R2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
+    <row r="3" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="21">
+        <f>C3/$F$3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <f>D3/$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <f>E3/$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="37">
+        <f>C3/$C$8</f>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="P3" s="41">
+        <f>D3/$D$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38">
+        <f>E3/$E$8</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+    </row>
+    <row r="4" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f>SUM(C4:E4)</f>
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="35">
+        <f>C4/$F$4</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J4" s="34">
+        <f>D4/$F$4</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="K4" s="36">
+        <f>E4/$F$4</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="35">
+        <f>C4/$C$8</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="P4" s="42">
+        <f>D4/$D$8</f>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="Q4" s="36">
+        <f>E4/$E$8</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="28">
-        <f>C3/$F$3</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F7" si="0">SUM(C5:E5)</f>
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="19">
+        <f>C5/$F$5</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <f>D5/$F$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="17">
+        <f>E5/$F$5</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="35">
+        <f>C5/$C$8</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P5" s="42">
+        <f>D5/$D$8</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="Q5" s="36">
+        <f>E5/$E$8</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+    </row>
+    <row r="6" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="35">
+        <f>C6/$F$6</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J6" s="34">
+        <f>D6/$F$6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J3" s="28">
-        <f>D3/$F$3</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K3" s="29">
-        <f>E3/$F$3</f>
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="O3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="28">
-        <f>C3/$C$6</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="Q3" s="28">
-        <f>D3/$D$6</f>
-        <v>0.125</v>
-      </c>
-      <c r="R3" s="29">
-        <f>E3/$E$6</f>
-        <v>0.25531914893617019</v>
-      </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
+      <c r="K6" s="36">
+        <f>E6/$F$6</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="35">
+        <f>C6/$C$8</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P6" s="42">
+        <f>D6/$D$8</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="Q6" s="36">
+        <f>E6/$E$8</f>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="20">
+        <f>C7/$F$7</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7" s="20">
+        <f>D7/$F$7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <f>E7/$F$7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="39">
+        <f>C7/$C$8</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P7" s="43">
+        <f>D7/$D$8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>E7/$E$8</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C3:C7)</f>
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D3:D7)</f>
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E3:E7)</f>
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F3:F7)</f>
+        <v>184</v>
+      </c>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="T9" s="50"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="50"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>37</v>
+      </c>
+      <c r="F12" s="33">
+        <f>SUM(C12:E12)</f>
+        <v>67</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="56">
+        <f>C12/$C$14</f>
+        <v>0.328125</v>
+      </c>
+      <c r="J12" s="57">
+        <f>D12/$D$14</f>
+        <v>0.12328767123287671</v>
+      </c>
+      <c r="K12" s="58">
+        <f>E12/$E$14</f>
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="N12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="56">
+        <f>C12/$F$12</f>
+        <v>0.31343283582089554</v>
+      </c>
+      <c r="P12" s="1">
+        <f>D12/$F$12</f>
+        <v>0.13432835820895522</v>
+      </c>
+      <c r="Q12" s="56">
+        <f>E12/$F$12</f>
+        <v>0.55223880597014929</v>
+      </c>
+      <c r="R12" s="33">
+        <f>SUM(O12:Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="53"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="33">
+        <f>SUM(C13:E13)</f>
+        <v>117</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1">
+        <f>C13/$C$14</f>
+        <v>0.671875</v>
+      </c>
+      <c r="J13" s="2">
+        <f>D13/$D$14</f>
+        <v>0.87671232876712324</v>
+      </c>
+      <c r="K13" s="3">
+        <f>E13/$E$14</f>
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="N13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="59">
+        <f>C13/$F$13</f>
+        <v>0.36752136752136755</v>
+      </c>
+      <c r="P13" s="6">
+        <f>D13/$F$13</f>
+        <v>0.54700854700854706</v>
+      </c>
+      <c r="Q13" s="59">
+        <f>E13/$F$13</f>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="R13" s="33">
+        <f>SUM(O13:Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="33">
+        <f>SUM(C12:C13)</f>
+        <v>64</v>
+      </c>
+      <c r="D14" s="33">
+        <f>SUM(D12:D13)</f>
+        <v>73</v>
+      </c>
+      <c r="E14" s="33">
+        <f>SUM(E12:E13)</f>
+        <v>47</v>
+      </c>
+      <c r="F14" s="33">
+        <f>SUM(F12:F13)</f>
+        <v>184</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="33">
+        <f>SUM(I12:I13)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="33">
+        <f>SUM(J12:J13)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="33">
+        <f>SUM(K12:K13)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="N14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="4"/>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
-        <v>40</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="28">
-        <f>C4/$F$4</f>
-        <v>0.15</v>
-      </c>
-      <c r="J4" s="28">
-        <f>D4/$F$4</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="K4" s="29">
-        <f>E4/$F$4</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="O4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="28">
-        <f>C4/$C$6</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="Q4" s="28">
-        <f>D4/$D$6</f>
-        <v>0.40625</v>
-      </c>
-      <c r="R4" s="29">
-        <f>E4/$E$6</f>
-        <v>0.44680851063829785</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="30"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
+      <c r="C32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="30">
-        <f>C5/$F$5</f>
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="J5" s="30">
-        <f>D5/$F$5</f>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="K5" s="31">
-        <f>E5/$F$5</f>
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="O5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="30">
-        <f>C5/$C$6</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="Q5" s="30">
-        <f>D5/$D$6</f>
-        <v>0.46875</v>
-      </c>
-      <c r="R5" s="31">
-        <f>E5/$E$6</f>
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="30"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <f>SUM(D3:D5)</f>
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <f>SUM(E3:E5)</f>
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <f>SUM(F3:F5)</f>
-        <v>101</v>
-      </c>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D11" s="4"/>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D12" s="4"/>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29"/>
+      <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="14" t="s">
+      <c r="D33" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="18"/>
+      <c r="G33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L2:M5"/>
-    <mergeCell ref="S2:U5"/>
-    <mergeCell ref="V1:AA6"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="T6:Y12"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="L2:M7"/>
+    <mergeCell ref="R2:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
